--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value757.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value757.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9699936248751299</v>
+        <v>1.037055730819702</v>
       </c>
       <c r="B1">
-        <v>2.405825632282942</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.819838600659592</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.292646673292895</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.242156834333119</v>
+        <v>1.167799711227417</v>
       </c>
     </row>
   </sheetData>
